--- a/meta/program/BlancoValueObjectKtResourceBundle.xlsx
+++ b/meta/program/BlancoValueObjectKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EAEE64-590F-E846-B27D-72D25302576D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB505C5-6332-0643-A649-F10CF4BD52E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="111">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -611,6 +613,17 @@
   </si>
   <si>
     <t>META2XML.ELEMENT_COMMON_KT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2SOURCE_FILE.ERR007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス名[{0}]の委譲フィールド[{1}]の型名が指定されていません。</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1443,10 +1456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1613,7 +1626,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A80" si="0">A16+1</f>
+        <f t="shared" ref="A17:A81" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -2175,8 +2188,12 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
@@ -2184,15 +2201,11 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="28">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B56" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>77</v>
-      </c>
+        <f>A54+1</f>
+        <v>41</v>
+      </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -2201,13 +2214,13 @@
     <row r="57" spans="1:7">
       <c r="A57" s="28">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
@@ -2217,13 +2230,13 @@
     <row r="58" spans="1:7">
       <c r="A58" s="28">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
@@ -2233,10 +2246,14 @@
     <row r="59" spans="1:7">
       <c r="A59" s="28">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
@@ -2245,14 +2262,10 @@
     <row r="60" spans="1:7">
       <c r="A60" s="28">
         <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>78</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -2261,13 +2274,13 @@
     <row r="61" spans="1:7">
       <c r="A61" s="28">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
@@ -2277,13 +2290,13 @@
     <row r="62" spans="1:7">
       <c r="A62" s="28">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
@@ -2293,10 +2306,14 @@
     <row r="63" spans="1:7">
       <c r="A63" s="28">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -2305,14 +2322,10 @@
     <row r="64" spans="1:7">
       <c r="A64" s="28">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>80</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -2321,13 +2334,13 @@
     <row r="65" spans="1:7">
       <c r="A65" s="28">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
@@ -2337,13 +2350,13 @@
     <row r="66" spans="1:7">
       <c r="A66" s="28">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
@@ -2353,13 +2366,13 @@
     <row r="67" spans="1:7">
       <c r="A67" s="28">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
@@ -2369,10 +2382,14 @@
     <row r="68" spans="1:7">
       <c r="A68" s="28">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
@@ -2381,14 +2398,10 @@
     <row r="69" spans="1:7">
       <c r="A69" s="28">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>84</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B69" s="23"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -2397,13 +2410,13 @@
     <row r="70" spans="1:7">
       <c r="A70" s="28">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -2413,13 +2426,13 @@
     <row r="71" spans="1:7">
       <c r="A71" s="28">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
@@ -2429,13 +2442,13 @@
     <row r="72" spans="1:7">
       <c r="A72" s="28">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
@@ -2445,10 +2458,14 @@
     <row r="73" spans="1:7">
       <c r="A73" s="28">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
@@ -2457,14 +2474,10 @@
     <row r="74" spans="1:7">
       <c r="A74" s="28">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>87</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
@@ -2473,10 +2486,14 @@
     <row r="75" spans="1:7">
       <c r="A75" s="28">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="20"/>
+        <v>60</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
@@ -2485,12 +2502,10 @@
     <row r="76" spans="1:7">
       <c r="A76" s="28">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="23"/>
-      <c r="C76" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -2499,11 +2514,11 @@
     <row r="77" spans="1:7">
       <c r="A77" s="28">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="20" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
@@ -2513,11 +2528,11 @@
     <row r="78" spans="1:7">
       <c r="A78" s="28">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="20" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
@@ -2527,10 +2542,12 @@
     <row r="79" spans="1:7">
       <c r="A79" s="28">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="23"/>
-      <c r="C79" s="20"/>
+      <c r="C79" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
@@ -2539,14 +2556,10 @@
     <row r="80" spans="1:7">
       <c r="A80" s="28">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>89</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B80" s="23"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -2554,14 +2567,14 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f>A80+1</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -2570,14 +2583,14 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="28">
-        <f>A81+1</f>
-        <v>68</v>
+        <f t="shared" ref="A82:A87" si="1">A81+1</f>
+        <v>67</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -2586,14 +2599,14 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="28">
-        <f>A82+1</f>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
@@ -2602,14 +2615,14 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="28">
-        <f>A83+1</f>
-        <v>70</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2618,14 +2631,14 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="28">
-        <f>A84+1</f>
-        <v>71</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -2634,14 +2647,14 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="28">
-        <f>A85+1</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2649,13 +2662,29 @@
       <c r="G86" s="22"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="29"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
+      <c r="A87" s="28">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="29"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/meta/program/BlancoValueObjectKtResourceBundle.xlsx
+++ b/meta/program/BlancoValueObjectKtResourceBundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB505C5-6332-0643-A649-F10CF4BD52E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF740BF4-711F-CF44-92D6-7B7A0B00ECC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1458,8 +1458,8 @@
   </sheetPr>
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2201,8 +2201,8 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="28">
-        <f>A54+1</f>
-        <v>41</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="20"/>
@@ -2214,7 +2214,7 @@
     <row r="57" spans="1:7">
       <c r="A57" s="28">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" s="23" t="s">
         <v>54</v>
@@ -2230,7 +2230,7 @@
     <row r="58" spans="1:7">
       <c r="A58" s="28">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B58" s="23" t="s">
         <v>55</v>
@@ -2246,7 +2246,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="28">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" s="23" t="s">
         <v>57</v>
@@ -2262,7 +2262,7 @@
     <row r="60" spans="1:7">
       <c r="A60" s="28">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="20"/>
@@ -2274,7 +2274,7 @@
     <row r="61" spans="1:7">
       <c r="A61" s="28">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>59</v>
@@ -2290,7 +2290,7 @@
     <row r="62" spans="1:7">
       <c r="A62" s="28">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>60</v>
@@ -2306,7 +2306,7 @@
     <row r="63" spans="1:7">
       <c r="A63" s="28">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>61</v>
@@ -2322,7 +2322,7 @@
     <row r="64" spans="1:7">
       <c r="A64" s="28">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="20"/>
@@ -2334,7 +2334,7 @@
     <row r="65" spans="1:7">
       <c r="A65" s="28">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65" s="23" t="s">
         <v>62</v>
@@ -2350,7 +2350,7 @@
     <row r="66" spans="1:7">
       <c r="A66" s="28">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>63</v>
@@ -2366,7 +2366,7 @@
     <row r="67" spans="1:7">
       <c r="A67" s="28">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B67" s="23" t="s">
         <v>64</v>
@@ -2382,7 +2382,7 @@
     <row r="68" spans="1:7">
       <c r="A68" s="28">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>65</v>
@@ -2398,7 +2398,7 @@
     <row r="69" spans="1:7">
       <c r="A69" s="28">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="20"/>
@@ -2410,7 +2410,7 @@
     <row r="70" spans="1:7">
       <c r="A70" s="28">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="23" t="s">
         <v>66</v>
@@ -2426,7 +2426,7 @@
     <row r="71" spans="1:7">
       <c r="A71" s="28">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B71" s="23" t="s">
         <v>67</v>
@@ -2442,7 +2442,7 @@
     <row r="72" spans="1:7">
       <c r="A72" s="28">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>68</v>
@@ -2458,7 +2458,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="28">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" s="23" t="s">
         <v>69</v>
@@ -2474,7 +2474,7 @@
     <row r="74" spans="1:7">
       <c r="A74" s="28">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="20"/>
@@ -2486,7 +2486,7 @@
     <row r="75" spans="1:7">
       <c r="A75" s="28">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B75" s="23" t="s">
         <v>71</v>
@@ -2502,7 +2502,7 @@
     <row r="76" spans="1:7">
       <c r="A76" s="28">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="20"/>
@@ -2514,7 +2514,7 @@
     <row r="77" spans="1:7">
       <c r="A77" s="28">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="20" t="s">
@@ -2528,7 +2528,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="28">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="20" t="s">
@@ -2542,7 +2542,7 @@
     <row r="79" spans="1:7">
       <c r="A79" s="28">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="20" t="s">
@@ -2556,7 +2556,7 @@
     <row r="80" spans="1:7">
       <c r="A80" s="28">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="20"/>
@@ -2568,7 +2568,7 @@
     <row r="81" spans="1:7">
       <c r="A81" s="28">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="23" t="s">
         <v>95</v>
@@ -2584,7 +2584,7 @@
     <row r="82" spans="1:7">
       <c r="A82" s="28">
         <f t="shared" ref="A82:A87" si="1">A81+1</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>96</v>
@@ -2600,7 +2600,7 @@
     <row r="83" spans="1:7">
       <c r="A83" s="28">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B83" s="23" t="s">
         <v>97</v>
@@ -2616,7 +2616,7 @@
     <row r="84" spans="1:7">
       <c r="A84" s="28">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84" s="23" t="s">
         <v>98</v>
@@ -2632,7 +2632,7 @@
     <row r="85" spans="1:7">
       <c r="A85" s="28">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B85" s="23" t="s">
         <v>99</v>
@@ -2648,7 +2648,7 @@
     <row r="86" spans="1:7">
       <c r="A86" s="28">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
         <v>100</v>
@@ -2664,7 +2664,7 @@
     <row r="87" spans="1:7">
       <c r="A87" s="28">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
         <v>108</v>

--- a/meta/program/BlancoValueObjectKtResourceBundle.xlsx
+++ b/meta/program/BlancoValueObjectKtResourceBundle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF740BF4-711F-CF44-92D6-7B7A0B00ECC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A568FF0-B0BF-F84D-A7ED-DF23AB72D817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9680" yWindow="4680" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="9" r:id="rId1"/>
@@ -965,28 +965,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,14 +1025,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,10 +1454,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1514,11 +1512,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="10"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1558,11 +1556,11 @@
       <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
@@ -1576,1115 +1574,1127 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>1</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <f>A15+1</f>
         <v>2</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="28">
-        <f t="shared" ref="A17:A81" si="0">A16+1</f>
+      <c r="A17" s="27">
+        <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="I27" s="33"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="I28" s="33"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="I29" s="33"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="28">
+      <c r="A33" s="27">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="28">
+      <c r="A34" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="28">
+      <c r="A35" s="27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="28">
+      <c r="A36" s="27">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="28">
+      <c r="A38" s="27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="28">
+      <c r="A39" s="27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="28">
+      <c r="A40" s="27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="22"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="28">
+      <c r="A41" s="27">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="28">
+      <c r="A42" s="27">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="28">
+      <c r="A43" s="27">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="28">
+      <c r="A44" s="27">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="22"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="28">
+      <c r="A45" s="27">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="22"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="28">
+      <c r="A46" s="27">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="28">
+      <c r="A47" s="27">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="28">
+      <c r="A48" s="27">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="28">
+      <c r="A49" s="27">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="28">
+      <c r="A50" s="27">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="28">
+      <c r="A51" s="27">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="28">
+      <c r="A52" s="27">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B52" s="23" t="s">
+      <c r="B52" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="28">
+      <c r="A53" s="27">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="28">
+      <c r="A54" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="28">
+      <c r="A55" s="27">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="28">
+      <c r="A56" s="27">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="28">
+      <c r="A57" s="27">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="28">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B58" s="23" t="s">
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="28">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B59" s="23" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="27">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="28">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="28">
+      <c r="A61" s="27">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="28">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B62" s="23" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B63" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C63" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="28">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B63" s="23" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="28">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="28">
+      <c r="A65" s="27">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B66" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="28">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B66" s="23" t="s">
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B67" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="28">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B67" s="23" t="s">
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="28">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B68" s="23" t="s">
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="28">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="28">
+      <c r="A70" s="27">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B71" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C71" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="28">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B71" s="23" t="s">
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B72" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="28">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B72" s="23" t="s">
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="27">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B73" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C73" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="28">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B73" s="23" t="s">
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="28">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="28">
+      <c r="A75" s="27">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="22"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B76" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="28">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="28">
+      <c r="A77" s="27">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="20" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="27">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="28">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="20" t="s">
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="27">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="28">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="20" t="s">
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="21"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="27">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="28">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="21"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="28">
-        <f t="shared" si="0"/>
+      <c r="A81" s="27">
+        <f t="shared" ref="A81:A88" si="1">A80+1</f>
         <v>67</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B82" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="22"/>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="28">
-        <f t="shared" ref="A82:A87" si="1">A81+1</f>
-        <v>68</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="22"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="21"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="28">
+      <c r="A83" s="27">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
+      <c r="B83" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="28">
+      <c r="A84" s="27">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22"/>
+      <c r="B84" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="21"/>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="28">
+      <c r="A85" s="27">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B85" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="22"/>
+      <c r="B85" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="28">
+      <c r="A86" s="27">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B86" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="22"/>
+      <c r="B86" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="28">
+      <c r="A87" s="27">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B87" s="23" t="s">
+      <c r="B87" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="27">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B88" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="28"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
